--- a/Project5 Beoordeling.xlsx
+++ b/Project5 Beoordeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\leerjaar 2\project5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7c2cf874958896d/Documenten/School Projecten/Leerjaar 2/Project5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D52F65-F4E6-44F8-B8EA-DA731FFEF245}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>Groep1</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>niet behaald</t>
+  </si>
+  <si>
+    <t>Delano</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Guido</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,64 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFC000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFC000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFC000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFC000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -845,13 +914,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -860,28 +929,38 @@
     <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.5546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="8" width="3.5546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -897,8 +976,12 @@
         <f>G17</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="6" t="str">
+        <f>H17</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -914,8 +997,12 @@
         <f>IF(COUNTIF(G6:G12,"v")=7,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="str">
+        <f>IF(COUNTIF(H6:H12,"v")=7,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -924,8 +1011,9 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -934,8 +1022,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,16 +1035,20 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H8" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -962,16 +1057,18 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
@@ -980,8 +1077,9 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,8 +1095,12 @@
         <f>IF(AND(G5="v",COUNTIF(G14:G16,"v")+COUNTIF(G14:G16,"g")=3),"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="str">
+        <f>IF(AND(H5="v",COUNTIF(H14:H16,"v")+COUNTIF(H14:H16,"g")=3),"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1014,8 +1116,12 @@
         <f>UPPER(G52)</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="str">
+        <f>UPPER(H52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1031,8 +1137,12 @@
         <f>G26</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="str">
+        <f>H26</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1048,8 +1158,12 @@
         <f>G43</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="str">
+        <f>H43</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1065,8 +1179,12 @@
         <f>IF(COUNTIF(G18:G22,"v")=5,IF(G13="v","G",""),G13)</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H17" s="8" t="str">
+        <f>IF(COUNTIF(H18:H22,"v")=5,IF(H13="v","G",""),H13)</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1082,8 +1200,12 @@
         <f>IF(AND(G56="v",G67="v"),"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="str">
+        <f>IF(AND(H56="v",H67="v"),"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1099,8 +1221,12 @@
         <f>UPPER(G53)</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="str">
+        <f>UPPER(H53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1116,8 +1242,12 @@
         <f>IF(AND(G72="v",G79="v"),"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="str">
+        <f>IF(AND(H72="v",H79="v"),"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1133,8 +1263,12 @@
         <f>IF(AND(G92="v",G95="v"),"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="str">
+        <f>IF(AND(H92="v",H95="v"),"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1150,13 +1284,17 @@
         <f>IF(G41="s","V",UPPER(G41))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="str">
+        <f>IF(H41="s","V",UPPER(H41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1172,8 +1310,12 @@
         <f t="shared" si="0"/>
         <v>O</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="8" t="str">
+        <f t="shared" ref="H26" si="1">IF(COUNTIF(H28:H37,"v")+COUNTIF(H28:H37,"s")=10,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1189,88 +1331,102 @@
         <f>IF(COUNTIF(G28:G30,"v")+COUNTIF(G28:G30,"s")=3,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="str">
+        <f>IF(COUNTIF(H28:H30,"v")+COUNTIF(H28:H30,"s")=3,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1279,39 +1435,50 @@
         <v>O</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" ref="F38:G38" si="1">IF(COUNTIF(F39:F40,"v")+COUNTIF(F39:F40,"s")=2,"V","O")</f>
+        <f t="shared" ref="F38:G38" si="2">IF(COUNTIF(F39:F40,"v")+COUNTIF(F39:F40,"s")=2,"V","O")</f>
         <v>O</v>
       </c>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>O</v>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f t="shared" ref="H38" si="3">IF(COUNTIF(H39:H40,"v")+COUNTIF(H39:H40,"s")=2,"V","O")</f>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H39" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H40" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1327,8 +1494,12 @@
         <f>IF(COUNTIF(G45:G48,"v")+COUNTIF(G45:G48,"s")=4,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="8" t="str">
+        <f>IF(COUNTIF(H45:H48,"v")+COUNTIF(H45:H48,"s")=4,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1344,45 +1515,53 @@
         <f>IF(COUNTIF(G45:G46,"v")+COUNTIF(G45:G46,"s")=2,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="str">
+        <f>IF(COUNTIF(H45:H46,"v")+COUNTIF(H45:H46,"s")=2,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1398,29 +1577,35 @@
         <f>IF(AND(G52="v",G53="v"),"G",IF(G52="v","V","O"))</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="8" t="str">
+        <f>IF(AND(H52="v",H53="v"),"G",IF(H52="v","V","O"))</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1436,79 +1621,90 @@
         <f>IF(COUNTIF(G57:G66,"v")+COUNTIF(G57:G66,"s")=7,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="8" t="str">
+        <f>IF(COUNTIF(H57:H66,"v")+COUNTIF(H57:H66,"s")=7,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C60" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C64" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
@@ -1524,29 +1720,35 @@
         <f>IF(COUNTIF(G68:G70,"v")+COUNTIF(G68:G70,"s")=2,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="str">
+        <f>IF(COUNTIF(H68:H70,"v")+COUNTIF(H68:H70,"s")=2,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C69" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
@@ -1562,56 +1764,66 @@
         <f>IF(COUNTIF(G73:G78,"v")+COUNTIF(G73:G78,"s")=7,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="1" t="str">
+        <f>IF(COUNTIF(H73:H78,"v")+COUNTIF(H73:H78,"s")=7,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -1627,87 +1839,105 @@
         <f>IF(COUNTIF(G80:G90,"v")+COUNTIF(G80:G90,"s")=8,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="1" t="str">
+        <f>IF(COUNTIF(H80:H90,"v")+COUNTIF(H80:H90,"s")=8,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C83" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-    </row>
-    <row r="88" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="H89" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>79</v>
       </c>
@@ -1717,8 +1947,11 @@
       <c r="G91" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
@@ -1734,24 +1967,30 @@
         <f>IF(COUNTIF(G93:G94,"v")+COUNTIF(G93:G94,"s")=2,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="1" t="str">
+        <f>IF(COUNTIF(H93:H94,"v")+COUNTIF(H93:H94,"s")=2,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>83</v>
       </c>
@@ -1767,26 +2006,46 @@
         <f>IF(COUNTIF(G96:G97,"v")+COUNTIF(G96:G97,"s")=2,"V","O")</f>
         <v>O</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="1" t="str">
+        <f>IF(COUNTIF(H96:H97,"v")+COUNTIF(H96:H97,"s")=2,"V","O")</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="15" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="114" operator="equal">
+      <formula>"o"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="115" operator="equal">
+      <formula>"g"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="116" operator="equal">
+      <formula>"V"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1800,7 +2059,7 @@
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" dxfId="7" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1814,17 +2073,17 @@
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"o"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1838,13 +2097,13 @@
           <x14:formula1>
             <xm:f>Blad3!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E64:G66 E39:G41 E52:G53 E60:G62 E57:G57 E45:G48 E70:G70 E80:G81 E89:G90 E83:G85 E96:G97 E93:G94 E68:G68 E87:G87 E28:G37 E73:G78</xm:sqref>
+          <xm:sqref>E64:H66 E39:H41 E52:H53 E60:H62 E57:H57 E45:H48 E70:H70 E80:H81 E89:H90 E83:H85 E96:H97 E93:H94 E68:H68 E87:H87 E28:H37 E73:H78</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Blad3!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:G12</xm:sqref>
+          <xm:sqref>E6:H12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Project5 Beoordeling.xlsx
+++ b/Project5 Beoordeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7c2cf874958896d/Documenten/School Projecten/Leerjaar 2/Project5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D52F65-F4E6-44F8-B8EA-DA731FFEF245}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39224A55-8109-4600-8F60-76F6DCC0E6DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>Groep1</t>
   </si>
@@ -917,10 +917,10 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L89" sqref="L89"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1011,9 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
@@ -1118,7 +1120,7 @@
       </c>
       <c r="H14" s="1" t="str">
         <f>UPPER(H52)</f>
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1139,7 +1141,7 @@
       </c>
       <c r="H15" s="1" t="str">
         <f>H26</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1160,7 +1162,7 @@
       </c>
       <c r="H16" s="1" t="str">
         <f>H43</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1204,7 @@
       </c>
       <c r="H18" s="1" t="str">
         <f>IF(AND(H56="v",H67="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1223,7 +1225,7 @@
       </c>
       <c r="H19" s="1" t="str">
         <f>UPPER(H53)</f>
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1265,7 +1267,7 @@
       </c>
       <c r="H21" s="1" t="str">
         <f>IF(AND(H92="v",H95="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1312,7 +1314,7 @@
       </c>
       <c r="H26" s="8" t="str">
         <f t="shared" ref="H26" si="1">IF(COUNTIF(H28:H37,"v")+COUNTIF(H28:H37,"s")=10,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1333,7 +1335,7 @@
       </c>
       <c r="H27" s="1" t="str">
         <f>IF(COUNTIF(H28:H30,"v")+COUNTIF(H28:H30,"s")=3,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1343,7 +1345,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
@@ -1352,7 +1356,9 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
@@ -1361,7 +1367,9 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
@@ -1370,7 +1378,9 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
@@ -1379,7 +1389,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
@@ -1388,7 +1400,9 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
@@ -1397,7 +1411,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -1406,7 +1422,9 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -1415,7 +1433,9 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
@@ -1424,7 +1444,9 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1496,7 +1518,7 @@
       </c>
       <c r="H43" s="8" t="str">
         <f>IF(COUNTIF(H45:H48,"v")+COUNTIF(H45:H48,"s")=4,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1517,7 +1539,7 @@
       </c>
       <c r="H44" s="1" t="str">
         <f>IF(COUNTIF(H45:H46,"v")+COUNTIF(H45:H46,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1527,7 +1549,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
@@ -1536,7 +1560,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
@@ -1545,7 +1571,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
@@ -1554,7 +1582,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -1589,7 +1619,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
@@ -1598,7 +1630,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -1623,7 +1657,7 @@
       </c>
       <c r="H56" s="8" t="str">
         <f>IF(COUNTIF(H57:H66,"v")+COUNTIF(H57:H66,"s")=7,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1667,9 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
@@ -1652,7 +1688,9 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
@@ -1661,7 +1699,9 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C62" s="2" t="s">
@@ -1670,7 +1710,9 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
@@ -1684,7 +1726,9 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C65" s="2" t="s">
@@ -1693,7 +1737,9 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
@@ -1702,7 +1748,9 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -1722,7 +1770,7 @@
       </c>
       <c r="H67" s="1" t="str">
         <f>IF(COUNTIF(H68:H70,"v")+COUNTIF(H68:H70,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1732,7 +1780,9 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C69" s="2" t="s">
@@ -1746,7 +1796,9 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1776,7 +1828,9 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
@@ -1785,7 +1839,9 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
@@ -1794,7 +1850,9 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
@@ -1803,7 +1861,9 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
@@ -1812,7 +1872,9 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
@@ -1821,7 +1883,9 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -1969,7 +2033,7 @@
       </c>
       <c r="H92" s="1" t="str">
         <f>IF(COUNTIF(H93:H94,"v")+COUNTIF(H93:H94,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1979,7 +2043,9 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
@@ -1988,7 +2054,9 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -2008,7 +2076,7 @@
       </c>
       <c r="H95" s="1" t="str">
         <f>IF(COUNTIF(H96:H97,"v")+COUNTIF(H96:H97,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2018,7 +2086,9 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="97" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
@@ -2027,7 +2097,9 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>

--- a/Project5 Beoordeling.xlsx
+++ b/Project5 Beoordeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7c2cf874958896d/Documenten/School Projecten/Leerjaar 2/Project5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39224A55-8109-4600-8F60-76F6DCC0E6DD}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB1540B-33F7-41BE-B04E-054A70B77253}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Groep1</t>
   </si>
@@ -920,7 +920,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H38" s="8" t="str">
         <f t="shared" ref="H38" si="3">IF(COUNTIF(H39:H40,"v")+COUNTIF(H39:H40,"s")=2,"V","O")</f>
-        <v>V</v>
+        <v>O</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1487,9 +1487,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1970,9 +1968,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
@@ -1986,9 +1982,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
@@ -1997,9 +1991,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">

--- a/Project5 Beoordeling.xlsx
+++ b/Project5 Beoordeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7c2cf874958896d/Documenten/School Projecten/Leerjaar 2/Project5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB1540B-33F7-41BE-B04E-054A70B77253}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A158FAA3-0A7F-4253-9DCB-F020E13AD667}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Groep1</t>
   </si>
@@ -917,10 +917,10 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="U82" sqref="U82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1022,8 +1022,12 @@
       <c r="E7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>88</v>
       </c>
@@ -1035,8 +1039,12 @@
       <c r="E8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>88</v>
       </c>
@@ -1045,18 +1053,24 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1074,9 +1088,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1466,7 +1478,7 @@
       </c>
       <c r="H38" s="8" t="str">
         <f t="shared" ref="H38" si="3">IF(COUNTIF(H39:H40,"v")+COUNTIF(H39:H40,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1487,7 +1499,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1903,7 +1917,7 @@
       </c>
       <c r="H79" s="1" t="str">
         <f>IF(COUNTIF(H80:H90,"v")+COUNTIF(H80:H90,"s")=8,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1913,7 +1927,9 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
@@ -1922,7 +1938,9 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
@@ -1936,7 +1954,9 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="84" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
@@ -1945,7 +1965,9 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="85" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
@@ -1954,7 +1976,9 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
@@ -1968,7 +1992,9 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
@@ -1982,7 +2008,9 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C90" s="2" t="s">
@@ -1991,7 +2019,9 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">

--- a/Project5 Beoordeling.xlsx
+++ b/Project5 Beoordeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7c2cf874958896d/Documenten/School Projecten/Leerjaar 2/Project5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A158FAA3-0A7F-4253-9DCB-F020E13AD667}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{5BC9974A-03F9-4266-8911-E700F53468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531EBDA6-2FCE-4BAB-8889-F23A61FB81BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="96">
   <si>
     <t>Groep1</t>
   </si>
@@ -916,11 +916,11 @@
   </sheetPr>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U82" sqref="U82"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1070,10 +1070,14 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
@@ -1088,10 +1092,18 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1120,7 +1132,7 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>UPPER(E52)</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>UPPER(F52)</f>
@@ -1128,11 +1140,11 @@
       </c>
       <c r="G14" s="1" t="str">
         <f>UPPER(G52)</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>UPPER(H52)</f>
-        <v>S</v>
+        <v>V</v>
       </c>
     </row>
     <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1141,7 +1153,7 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>E26</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>F26</f>
@@ -1162,7 +1174,7 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>E43</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>F43</f>
@@ -1204,7 +1216,7 @@
       </c>
       <c r="E18" s="1" t="str">
         <f>IF(AND(E56="v",E67="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>IF(AND(F56="v",F67="v"),"V","O")</f>
@@ -1212,7 +1224,7 @@
       </c>
       <c r="G18" s="1" t="str">
         <f>IF(AND(G56="v",G67="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>IF(AND(H56="v",H67="v"),"V","O")</f>
@@ -1225,7 +1237,7 @@
       </c>
       <c r="E19" s="1" t="str">
         <f>UPPER(E53)</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="F19" s="1" t="str">
         <f>UPPER(F53)</f>
@@ -1233,11 +1245,11 @@
       </c>
       <c r="G19" s="1" t="str">
         <f>UPPER(G53)</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>UPPER(H53)</f>
-        <v>S</v>
+        <v>O</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1267,7 +1279,7 @@
       </c>
       <c r="E21" s="1" t="str">
         <f>IF(AND(E92="v",E95="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF(AND(F92="v",F95="v"),"V","O")</f>
@@ -1275,7 +1287,7 @@
       </c>
       <c r="G21" s="1" t="str">
         <f>IF(AND(G92="v",G95="v"),"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>IF(AND(H92="v",H95="v"),"V","O")</f>
@@ -1288,7 +1300,7 @@
       </c>
       <c r="E22" s="1" t="str">
         <f>IF(E41="s","V",UPPER(E41))</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>IF(F41="s","V",UPPER(F41))</f>
@@ -1300,7 +1312,7 @@
       </c>
       <c r="H22" s="1" t="str">
         <f>IF(H41="s","V",UPPER(H41))</f>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1314,7 +1326,7 @@
       </c>
       <c r="E26" s="8" t="str">
         <f>IF(COUNTIF(E28:E37,"v")+COUNTIF(E28:E37,"s")=10,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" ref="F26:G26" si="0">IF(COUNTIF(F28:F37,"v")+COUNTIF(F28:F37,"s")=10,"V","O")</f>
@@ -1335,7 +1347,7 @@
       </c>
       <c r="E27" s="1" t="str">
         <f>IF(COUNTIF(E28:E30,"v")+COUNTIF(E28:E30,"s")=3,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>IF(COUNTIF(F28:F30,"v")+COUNTIF(F28:F30,"s")=3,"V","O")</f>
@@ -1354,7 +1366,9 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
@@ -1365,7 +1379,9 @@
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
@@ -1376,7 +1392,9 @@
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
@@ -1387,7 +1405,9 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
@@ -1398,7 +1418,9 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
@@ -1409,7 +1431,9 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
@@ -1420,7 +1444,9 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
@@ -1431,7 +1457,9 @@
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
@@ -1442,7 +1470,9 @@
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
@@ -1453,7 +1483,9 @@
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
@@ -1466,7 +1498,7 @@
       </c>
       <c r="E38" s="8" t="str">
         <f>IF(COUNTIF(E39:E40,"v")+COUNTIF(E39:E40,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" ref="F38:G38" si="2">IF(COUNTIF(F39:F40,"v")+COUNTIF(F39:F40,"s")=2,"V","O")</f>
@@ -1485,7 +1517,9 @@
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
@@ -1496,7 +1530,9 @@
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
@@ -1507,10 +1543,14 @@
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1518,7 +1558,7 @@
       </c>
       <c r="E43" s="8" t="str">
         <f>IF(COUNTIF(E45:E48,"v")+COUNTIF(E45:E48,"s")=4,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F43" s="8" t="str">
         <f>IF(COUNTIF(F45:F48,"v")+COUNTIF(F45:F48,"s")=4,"V","O")</f>
@@ -1539,7 +1579,7 @@
       </c>
       <c r="E44" s="1" t="str">
         <f>IF(COUNTIF(E45:E46,"v")+COUNTIF(E45:E46,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>IF(COUNTIF(F45:F46,"v")+COUNTIF(F45:F46,"s")=2,"V","O")</f>
@@ -1558,7 +1598,9 @@
       <c r="C45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
@@ -1569,7 +1611,9 @@
       <c r="C46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
@@ -1580,7 +1624,9 @@
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
@@ -1591,7 +1637,9 @@
       <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
@@ -1609,7 +1657,7 @@
       </c>
       <c r="E51" s="8" t="str">
         <f>IF(AND(E52="v",E53="v"),"G",IF(E52="v","V","O"))</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>IF(AND(F52="v",F53="v"),"G",IF(F52="v","V","O"))</f>
@@ -1617,33 +1665,41 @@
       </c>
       <c r="G51" s="8" t="str">
         <f>IF(AND(G52="v",G53="v"),"G",IF(G52="v","V","O"))</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H51" s="8" t="str">
         <f>IF(AND(H52="v",H53="v"),"G",IF(H52="v","V","O"))</f>
-        <v>O</v>
+        <v>V</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="H52" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H53" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1657,7 +1713,7 @@
       </c>
       <c r="E56" s="8" t="str">
         <f>IF(COUNTIF(E57:E66,"v")+COUNTIF(E57:E66,"s")=7,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F56" s="8" t="str">
         <f>IF(COUNTIF(F57:F66,"v")+COUNTIF(F57:F66,"s")=7,"V","O")</f>
@@ -1665,7 +1721,7 @@
       </c>
       <c r="G56" s="8" t="str">
         <f>IF(COUNTIF(G57:G66,"v")+COUNTIF(G57:G66,"s")=7,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H56" s="8" t="str">
         <f>IF(COUNTIF(H57:H66,"v")+COUNTIF(H57:H66,"s")=7,"V","O")</f>
@@ -1676,9 +1732,13 @@
       <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" s="7" t="s">
         <v>79</v>
       </c>
@@ -1697,9 +1757,13 @@
       <c r="C60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H60" s="7" t="s">
         <v>79</v>
       </c>
@@ -1708,9 +1772,13 @@
       <c r="C61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H61" s="7" t="s">
         <v>79</v>
       </c>
@@ -1719,9 +1787,13 @@
       <c r="C62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H62" s="7" t="s">
         <v>79</v>
       </c>
@@ -1735,9 +1807,13 @@
       <c r="C64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H64" s="7" t="s">
         <v>79</v>
       </c>
@@ -1746,9 +1822,13 @@
       <c r="C65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H65" s="7" t="s">
         <v>79</v>
       </c>
@@ -1757,9 +1837,13 @@
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H66" s="7" t="s">
         <v>79</v>
       </c>
@@ -1770,7 +1854,7 @@
       </c>
       <c r="E67" s="1" t="str">
         <f>IF(COUNTIF(E68:E70,"v")+COUNTIF(E68:E70,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F67" s="1" t="str">
         <f>IF(COUNTIF(F68:F70,"v")+COUNTIF(F68:F70,"s")=2,"V","O")</f>
@@ -1778,7 +1862,7 @@
       </c>
       <c r="G67" s="1" t="str">
         <f>IF(COUNTIF(G68:G70,"v")+COUNTIF(G68:G70,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H67" s="1" t="str">
         <f>IF(COUNTIF(H68:H70,"v")+COUNTIF(H68:H70,"s")=2,"V","O")</f>
@@ -1789,9 +1873,13 @@
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H68" s="7" t="s">
         <v>79</v>
       </c>
@@ -1805,9 +1893,13 @@
       <c r="B70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H70" s="7" t="s">
         <v>79</v>
       </c>
@@ -1837,9 +1929,13 @@
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H73" s="7" t="s">
         <v>79</v>
       </c>
@@ -1848,9 +1944,13 @@
       <c r="B74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H74" s="7" t="s">
         <v>79</v>
       </c>
@@ -1859,9 +1959,13 @@
       <c r="B75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H75" s="7" t="s">
         <v>79</v>
       </c>
@@ -1870,9 +1974,13 @@
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H76" s="7" t="s">
         <v>79</v>
       </c>
@@ -1881,9 +1989,13 @@
       <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H77" s="7" t="s">
         <v>79</v>
       </c>
@@ -1892,9 +2004,13 @@
       <c r="B78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H78" s="7" t="s">
         <v>79</v>
       </c>
@@ -1905,7 +2021,7 @@
       </c>
       <c r="E79" s="1" t="str">
         <f>IF(COUNTIF(E80:E90,"v")+COUNTIF(E80:E90,"s")=8,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F79" s="1" t="str">
         <f>IF(COUNTIF(F80:F90,"v")+COUNTIF(F80:F90,"s")=8,"V","O")</f>
@@ -1913,7 +2029,7 @@
       </c>
       <c r="G79" s="1" t="str">
         <f>IF(COUNTIF(G80:G90,"v")+COUNTIF(G80:G90,"s")=8,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H79" s="1" t="str">
         <f>IF(COUNTIF(H80:H90,"v")+COUNTIF(H80:H90,"s")=8,"V","O")</f>
@@ -1924,9 +2040,13 @@
       <c r="B80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H80" s="7" t="s">
         <v>88</v>
       </c>
@@ -1935,9 +2055,13 @@
       <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H81" s="7" t="s">
         <v>88</v>
       </c>
@@ -1951,9 +2075,13 @@
       <c r="C83" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H83" s="7" t="s">
         <v>88</v>
       </c>
@@ -1962,9 +2090,13 @@
       <c r="C84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H84" s="7" t="s">
         <v>88</v>
       </c>
@@ -1973,9 +2105,13 @@
       <c r="C85" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H85" s="7" t="s">
         <v>88</v>
       </c>
@@ -1989,9 +2125,13 @@
       <c r="C87" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H87" s="7" t="s">
         <v>88</v>
       </c>
@@ -2005,9 +2145,13 @@
       <c r="C89" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H89" s="7" t="s">
         <v>88</v>
       </c>
@@ -2016,9 +2160,13 @@
       <c r="C90" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H90" s="7" t="s">
         <v>88</v>
       </c>
@@ -2043,7 +2191,7 @@
       </c>
       <c r="E92" s="1" t="str">
         <f>IF(COUNTIF(E93:E94,"v")+COUNTIF(E93:E94,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F92" s="1" t="str">
         <f>IF(COUNTIF(F93:F94,"v")+COUNTIF(F93:F94,"s")=2,"V","O")</f>
@@ -2051,7 +2199,7 @@
       </c>
       <c r="G92" s="1" t="str">
         <f>IF(COUNTIF(G93:G94,"v")+COUNTIF(G93:G94,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H92" s="1" t="str">
         <f>IF(COUNTIF(H93:H94,"v")+COUNTIF(H93:H94,"s")=2,"V","O")</f>
@@ -2062,9 +2210,13 @@
       <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H93" s="7" t="s">
         <v>79</v>
       </c>
@@ -2073,9 +2225,13 @@
       <c r="B94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H94" s="7" t="s">
         <v>79</v>
       </c>
@@ -2086,7 +2242,7 @@
       </c>
       <c r="E95" s="1" t="str">
         <f>IF(COUNTIF(E96:E97,"v")+COUNTIF(E96:E97,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F95" s="1" t="str">
         <f>IF(COUNTIF(F96:F97,"v")+COUNTIF(F96:F97,"s")=2,"V","O")</f>
@@ -2094,7 +2250,7 @@
       </c>
       <c r="G95" s="1" t="str">
         <f>IF(COUNTIF(G96:G97,"v")+COUNTIF(G96:G97,"s")=2,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>IF(COUNTIF(H96:H97,"v")+COUNTIF(H96:H97,"s")=2,"V","O")</f>
@@ -2105,9 +2261,13 @@
       <c r="B96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H96" s="7" t="s">
         <v>79</v>
       </c>
@@ -2116,9 +2276,13 @@
       <c r="B97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="G97" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H97" s="7" t="s">
         <v>79</v>
       </c>
